--- a/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -266,36 +266,27 @@
     <t>Moderne Wiskunde 11e editie havo 4. Hoofdstuk 4: Systematisch tellen + Hoofdstuk 8: Grafieken en veranderingen + vaardigheden</t>
   </si>
   <si>
-    <t>B3, D</t>
-  </si>
-  <si>
     <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 3 (Statistische vraagstellingen) + hoofdstuk 7 (Statistische verwerking (zonder ICT)) + vaardigheden</t>
   </si>
   <si>
     <t>Opdracht (inclusief exceltoets)</t>
   </si>
   <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor de tt.</t>
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 5 H1 (Lineaire en exponentiÃ«le formules) + H3 (Allerlei formules) + vaardigheden</t>
   </si>
   <si>
+    <t>Moderne Wiskunde 11e editie havo 5 H2 (Verdelingen (zonder ICT)) + H5 (Conclusies uit data) + vaardigheden</t>
+  </si>
+  <si>
+    <t>Moderne Wiskunde 11e editie havo 5 H4 (Toegepast rekenen) + H6 (Werken met formules) + vaardigheden</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 11e editie havo 5 H2 (Verdelingen (zonder ICT)) + H5 (Conclusies uit data) + vaardigheden</t>
-  </si>
-  <si>
-    <t>Moderne Wiskunde 11e editie havo 5 H4 (Toegepast rekenen) + H6 (Werken met formules) + vaardigheden</t>
-  </si>
-  <si>
-    <t>A, Rekenen</t>
-  </si>
-  <si>
     <t>Hoofdstuk 2 (Verbanden) + Vaardigheden</t>
   </si>
   <si>
@@ -320,9 +311,6 @@
     <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5 H2 Statistiek; H4 Toevalsvariabelen; H7 Binomiale verdeling, Vaardigheden</t>
   </si>
   <si>
-    <t>A1, A2, A3, E1 t/m E6</t>
-  </si>
-  <si>
     <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5 H3 Periodieke functies; H6 Rijen en recursie en Vaardigheden</t>
   </si>
   <si>
@@ -332,25 +320,13 @@
     <t xml:space="preserve">Wiskunde Alympiade </t>
   </si>
   <si>
-    <t>A1, A2, A3, E1</t>
-  </si>
-  <si>
     <t>Statistisch onderzoek</t>
   </si>
   <si>
-    <t>A1, A2, A3, E1 t/m E7, F</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 1 en 2. Vaardigheden.  Moderne wiskunde 11e editie wiskunde A deel vwo 5 hoofdstuk 6. Normale verdelingen en hypothese toetsen. Rijen. Vaardigheden. Onderzoeksopdrachten.               </t>
   </si>
   <si>
-    <t>A1, A2, A3, E, Rekenen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden.  Functies bewerken. DifferentiÃ«ren. SinusoÃ¯den. Vaardigheden.                                                                 </t>
-  </si>
-  <si>
-    <t>A1, A2, A3, Rekenen</t>
   </si>
   <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 5 en 6. Vaardigheden.  ExponentiÃ«le en logaritmische functies. Verbanden. Onderzoeksopdrachten. Combinatoriek. Vaardigheden. </t>
@@ -1378,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" s="27">
         <v>2</v>
@@ -1397,9 +1373,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1414,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1433,9 +1407,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1450,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -1469,9 +1441,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1487,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I9" s="27">
         <v>3</v>
@@ -1506,9 +1476,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1516,7 +1484,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1524,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I10" s="27">
         <v>3</v>
@@ -1543,9 +1511,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1561,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I11" s="27">
         <v>3</v>
@@ -1580,9 +1546,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -1625,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2398,7 +2362,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2553,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2572,9 +2536,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2583,7 +2545,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2604,9 +2566,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2615,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2634,9 +2594,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2645,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I21" s="27">
         <v>2</v>
@@ -2664,9 +2622,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2675,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I22" s="27">
         <v>1</v>
@@ -2694,9 +2650,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2705,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I23" s="27">
         <v>1</v>
@@ -2724,9 +2678,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -2746,7 +2698,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3314,7 +3266,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3674,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3693,9 +3645,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3704,7 +3654,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3723,9 +3673,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3734,7 +3682,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3753,9 +3701,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>107</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3841,7 +3787,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4194,7 +4140,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5149,7 +5095,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5965,7 +5911,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6781,7 +6727,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7520,9 +7466,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7556,9 +7500,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7592,9 +7534,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7631,9 +7571,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7641,7 +7579,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7649,7 +7587,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -7668,9 +7606,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7686,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7705,9 +7641,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -7750,7 +7684,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8523,7 +8457,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8678,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8697,9 +8631,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8708,7 +8640,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8727,9 +8659,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8738,7 +8668,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8757,9 +8687,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8845,7 +8773,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9403,7 +9331,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633321759</v>
+        <v>44335.808425926</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
@@ -260,7 +260,7 @@
     <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 1 (Rekenen) + vaardigheden</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 5 (Lineaire en exponentiÃ«le groei) + hoofdstuk 6 (Grafieken en vergelijkingen) + vaardigheden</t>
+    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 5 (Lineaire en exponentiële groei) + hoofdstuk 6 (Grafieken en vergelijkingen) + vaardigheden</t>
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 4. Hoofdstuk 4: Systematisch tellen + Hoofdstuk 8: Grafieken en veranderingen + vaardigheden</t>
@@ -275,7 +275,7 @@
     <t>Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor de tt.</t>
   </si>
   <si>
-    <t>Moderne Wiskunde 11e editie havo 5 H1 (Lineaire en exponentiÃ«le formules) + H3 (Allerlei formules) + vaardigheden</t>
+    <t>Moderne Wiskunde 11e editie havo 5 H1 (Lineaire en exponentiële formules) + H3 (Allerlei formules) + vaardigheden</t>
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 5 H2 (Verdelingen (zonder ICT)) + H5 (Conclusies uit data) + vaardigheden</t>
@@ -296,7 +296,7 @@
     <t>Hoofdstuk 4 (Machtsfuncties) + Vaardigheden</t>
   </si>
   <si>
-    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (ExponentiÃ«le functies) + Vaardigheden</t>
+    <t>Hoofdstuk 4 (Machtsfuncties) + Hoofdstuk 5 (Exponentiële functies) + Vaardigheden</t>
   </si>
   <si>
     <t>Hoofdstuk 3 (Statistiek) + Hoofdstuk 7 (Kansen) + Vaardigheden</t>
@@ -305,7 +305,7 @@
     <t>Hoofdstuk 6 (Veranderingen) + Hoofdstuk 8A (De afgeleiden) + Vaardigheden</t>
   </si>
   <si>
-    <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5. H1 Formules herleiden; H5 Logaritmische en exponentiÃ«le functies en Vaardigheden</t>
+    <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5. H1 Formules herleiden; H5 Logaritmische en exponentiële functies en Vaardigheden</t>
   </si>
   <si>
     <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5 H2 Statistiek; H4 Toevalsvariabelen; H7 Binomiale verdeling, Vaardigheden</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 1 en 2. Vaardigheden.  Moderne wiskunde 11e editie wiskunde A deel vwo 5 hoofdstuk 6. Normale verdelingen en hypothese toetsen. Rijen. Vaardigheden. Onderzoeksopdrachten.               </t>
   </si>
   <si>
-    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden.  Functies bewerken. DifferentiÃ«ren. SinusoÃ¯den. Vaardigheden.                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 5 en 6. Vaardigheden.  ExponentiÃ«le en logaritmische functies. Verbanden. Onderzoeksopdrachten. Combinatoriek. Vaardigheden. </t>
+    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden.  Functies bewerken. Differentiëren. Sinusoïden. Vaardigheden.                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 5 en 6. Vaardigheden.  Exponentiële en logaritmische functies. Verbanden. Onderzoeksopdrachten. Combinatoriek. Vaardigheden. </t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1348,9 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>344</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1382,7 +1384,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>345</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1416,7 +1420,9 @@
       <c r="B8" s="2">
         <v>106</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>346</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1451,7 +1457,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>347</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>2</v>
@@ -1484,9 +1492,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>348</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>3</v>
@@ -1521,7 +1531,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>349</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1568,7 +1580,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>262</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1782,7 +1796,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>263</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1987,7 +2003,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>264</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2362,7 +2380,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2434,7 +2452,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>265</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2511,7 +2531,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>350</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2539,7 +2561,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>351</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2569,7 +2593,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>352</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2597,7 +2623,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>353</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2625,7 +2653,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>354</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>2</v>
@@ -2653,7 +2683,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>355</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2684,7 +2716,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>266</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2891,7 +2925,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>267</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3266,7 +3302,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3338,7 +3374,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>268</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3550,7 +3588,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>269</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3620,7 +3660,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>356</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3648,7 +3690,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>357</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3676,7 +3720,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>358</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3773,7 +3819,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>270</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4140,7 +4188,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5095,7 +5143,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5911,7 +5959,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6727,7 +6775,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7441,7 +7489,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>335</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7475,7 +7525,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>336</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -7509,7 +7561,9 @@
       <c r="B8" s="2">
         <v>104</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>337</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7544,7 +7598,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>338</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7579,9 +7635,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>339</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7616,7 +7674,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>340</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>3</v>
@@ -7663,7 +7723,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>258</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7877,7 +7939,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>259</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8457,7 +8521,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8529,7 +8593,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>260</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8606,7 +8672,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>341</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8634,7 +8702,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>342</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8662,7 +8732,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>343</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8759,7 +8831,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>261</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9331,7 +9405,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808425926</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>WA</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -266,25 +270,37 @@
     <t>Moderne Wiskunde 11e editie havo 4. Hoofdstuk 4: Systematisch tellen + Hoofdstuk 8: Grafieken en veranderingen + vaardigheden</t>
   </si>
   <si>
+    <t>B3, D</t>
+  </si>
+  <si>
     <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 3 (Statistische vraagstellingen) + hoofdstuk 7 (Statistische verwerking (zonder ICT)) + vaardigheden</t>
   </si>
   <si>
     <t>Opdracht (inclusief exceltoets)</t>
   </si>
   <si>
+    <t>Computer (geen chromebook)</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
     <t>Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor de tt.</t>
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 5 H1 (Lineaire en exponentiële formules) + H3 (Allerlei formules) + vaardigheden</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Moderne Wiskunde 11e editie havo 5 H2 (Verdelingen (zonder ICT)) + H5 (Conclusies uit data) + vaardigheden</t>
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 5 H4 (Toegepast rekenen) + H6 (Werken met formules) + vaardigheden</t>
   </si>
   <si>
-    <t>A</t>
+    <t>A, Rekenen</t>
   </si>
   <si>
     <t>Hoofdstuk 2 (Verbanden) + Vaardigheden</t>
@@ -311,6 +327,9 @@
     <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5 H2 Statistiek; H4 Toevalsvariabelen; H7 Binomiale verdeling, Vaardigheden</t>
   </si>
   <si>
+    <t>A1, A2, A3, E1 t/m E6</t>
+  </si>
+  <si>
     <t>Moderne wiskunde 11e editie wiskunde A deel vwo 5 H3 Periodieke functies; H6 Rijen en recursie en Vaardigheden</t>
   </si>
   <si>
@@ -320,13 +339,25 @@
     <t xml:space="preserve">Wiskunde Alympiade </t>
   </si>
   <si>
+    <t>A1, A2, A3, E1</t>
+  </si>
+  <si>
     <t>Statistisch onderzoek</t>
   </si>
   <si>
+    <t>A1, A2, A3, E1 t/m E7, F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 1 en 2. Vaardigheden.  Moderne wiskunde 11e editie wiskunde A deel vwo 5 hoofdstuk 6. Normale verdelingen en hypothese toetsen. Rijen. Vaardigheden. Onderzoeksopdrachten.               </t>
   </si>
   <si>
+    <t>A1, A2, A3, E, Rekenen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 3 en 4. Vaardigheden.  Functies bewerken. Differentiëren. Sinusoïden. Vaardigheden.                                                                 </t>
+  </si>
+  <si>
+    <t>A1, A2, A3, Rekenen</t>
   </si>
   <si>
     <t xml:space="preserve">Moderne wiskunde 11e editie, wiskunde A, deel vwo 6, de hoofdstukken 5 en 6. Vaardigheden.  Exponentiële en logaritmische functies. Verbanden. Onderzoeksopdrachten. Combinatoriek. Vaardigheden. </t>
@@ -1258,12 +1289,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1285,25 +1316,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1345,35 +1372,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2">
-        <v>344</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1381,35 +1398,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>345</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1417,35 +1424,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>106</v>
-      </c>
-      <c r="D8" s="2">
-        <v>346</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1455,34 +1452,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>347</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>2</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1492,34 +1481,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>348</v>
-      </c>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1531,32 +1512,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>349</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="27">
-        <v>3</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1575,17 +1548,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>262</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1600,11 +1571,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1619,7 +1588,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1796,12 +1765,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>263</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1826,7 +1793,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2003,12 +1970,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>264</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2082,44 +2047,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2183,7 +2110,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2214,7 +2141,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>WA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2266,22 +2193,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D6" s="2">
+        <v>344</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -2294,22 +2229,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>345</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -2322,22 +2265,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>107</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="D8" s="2">
+        <v>346</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2351,22 +2302,30 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>347</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -2380,22 +2339,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>348</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -2411,20 +2378,28 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>349</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="27">
+        <v>3</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
@@ -2447,17 +2422,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2472,9 +2447,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2489,7 +2466,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>WA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2531,184 +2508,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>350</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>351</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>352</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>353</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>354</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>2</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="27">
-        <v>1</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>355</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="27">
-        <v>1</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2717,11 +2644,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2731,9 +2658,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2748,7 +2673,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>WA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2926,11 +2851,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3063,6 +2988,934 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>107</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>265</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>350</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>351</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>352</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31">
+        <v>0</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>353</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>354</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>2</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>355</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="27">
+        <v>1</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>1</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>266</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>267</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3188,7 +4041,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3302,7 +4155,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3668,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3685,9 +4538,11 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3698,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3715,9 +4570,11 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3728,7 +4585,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3745,9 +4602,11 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3835,7 +4694,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4188,7 +5047,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5143,7 +6002,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5959,7 +6818,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6583,12 +7442,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6610,6 +7469,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>WA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>103</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>256</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>WA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>257</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>WA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6775,7 +8499,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7355,926 +9079,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>335</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>336</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>104</v>
-      </c>
-      <c r="D8" s="2">
-        <v>337</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>338</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>3</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>339</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>340</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>3</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>2</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>258</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>259</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8324,7 +9128,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8355,7 +9159,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>WA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>WA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8407,22 +9211,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>335</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -8435,22 +9247,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>336</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -8463,22 +9283,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>105</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D8" s="2">
+        <v>337</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -8492,28 +9320,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>338</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>3</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8521,22 +9361,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444074074</v>
+      </c>
+      <c r="D10" s="2">
+        <v>339</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -8552,26 +9400,38 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>340</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>3</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>2</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8588,17 +9448,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8613,9 +9473,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8630,7 +9492,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>WA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>WA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8672,92 +9534,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>341</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>342</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>343</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8832,11 +9670,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8846,9 +9684,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8863,7 +9699,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>WA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>WA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9043,7 +9879,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9213,12 +10049,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9240,21 +10076,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>WA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>9</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9296,7 +10136,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9322,7 +10164,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9348,7 +10192,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>105</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9376,7 +10222,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9405,7 +10251,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444074074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9472,15 +10318,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>260</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9495,7 +10343,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9512,7 +10360,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>WA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9554,70 +10402,100 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>341</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>342</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>3</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>343</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9689,10 +10567,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>261</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9702,7 +10582,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9717,7 +10599,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>WA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9897,7 +10779,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  WA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9971,6 +10853,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808900463</v>
+        <v>44341.376284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2332,7 +2332,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808900463</v>
+        <v>44341.376284722</v>
       </c>
       <c r="D10" s="2">
         <v>339</v>
@@ -3468,7 +3468,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808900463</v>
+        <v>44341.376284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4578,7 +4578,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808900463</v>
+        <v>44341.376284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5658,7 +5658,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808900463</v>
+        <v>44341.376284722</v>
       </c>
       <c r="D10" s="2">
         <v>348</v>
@@ -6788,7 +6788,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808900463</v>
+        <v>44341.376284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7926,7 +7926,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.808900463</v>
+        <v>44341.376284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9038,7 +9038,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
@@ -825,21 +825,48 @@
     <t>H</t>
   </si>
   <si>
+    <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 2 (Tabellen en grafieken) + vaardigheden</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 1 (Rekenen) + vaardigheden</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 5 (Lineaire en exponentiële groei) + hoofdstuk 6 (Grafieken en vergelijkingen) + vaardigheden</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Moderne Wiskunde 11e editie havo 4. Hoofdstuk 4: Systematisch tellen + Hoofdstuk 8: Grafieken en veranderingen + vaardigheden</t>
+  </si>
+  <si>
+    <t>B3, D</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 3 (Statistische vraagstellingen) + hoofdstuk 7 (Statistische verwerking (zonder ICT)) + vaardigheden</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
   </si>
   <si>
+    <t>Opdracht (inclusief exceltoets)</t>
+  </si>
+  <si>
+    <t>Computer (geen chromebook)</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
     <t>huidigSchooljaar</t>
   </si>
   <si>
@@ -850,33 +877,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 2 (Tabellen en grafieken) + vaardigheden</t>
-  </si>
-  <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 1 (Rekenen) + vaardigheden</t>
-  </si>
-  <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 5 (Lineaire en exponentiële groei) + hoofdstuk 6 (Grafieken en vergelijkingen) + vaardigheden</t>
-  </si>
-  <si>
-    <t>Moderne Wiskunde 11e editie havo 4. Hoofdstuk 4: Systematisch tellen + Hoofdstuk 8: Grafieken en veranderingen + vaardigheden</t>
-  </si>
-  <si>
-    <t>B3, D</t>
-  </si>
-  <si>
-    <t>Moderne Wiskunde 11e editie havo 4 PW  hoofdstuk 3 (Statistische vraagstellingen) + hoofdstuk 7 (Statistische verwerking (zonder ICT)) + vaardigheden</t>
-  </si>
-  <si>
-    <t>Opdracht (inclusief exceltoets)</t>
-  </si>
-  <si>
-    <t>Computer (geen chromebook)</t>
-  </si>
-  <si>
-    <t>E5</t>
   </si>
   <si>
     <t>Bij de tt vervangt de grafische rekenmachine de gewone rekenmachine als toegestaan hulpmiddel. Alle aantekeningen, stencils en extra opgaven die gegeven zijn in de les behoren ook tot de stof voor de tt.</t>
@@ -2309,21 +2309,29 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>745</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -2334,26 +2342,34 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>746</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -2364,26 +2380,34 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>206</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>747</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -2394,58 +2418,78 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>748</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>3</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382303241</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629525463</v>
+      </c>
+      <c r="D10" s="2">
+        <v>749</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -2456,38 +2500,50 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>750</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="L11" s="23"/>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>2</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2508,7 +2564,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2538,7 +2594,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2559,7 +2615,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3396,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -3420,7 +3476,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3434,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -3458,7 +3514,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>104</v>
@@ -3472,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="43">
         <v>2</v>
@@ -3496,7 +3552,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3511,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>3</v>
@@ -3533,17 +3589,17 @@
         <v>8</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382303241</v>
+        <v>44342.629525463</v>
       </c>
       <c r="D10" s="2">
         <v>339</v>
@@ -3554,7 +3610,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I10" s="43">
         <v>2</v>
@@ -3578,7 +3634,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3593,7 +3649,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" s="43">
         <v>2</v>
@@ -3602,7 +3658,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L11" s="43"/>
       <c r="M11" s="43" t="s">
@@ -3615,13 +3671,13 @@
         <v>11</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3642,7 +3698,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3672,7 +3728,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3695,7 +3751,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3776,75 +3832,105 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>742</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>3</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>743</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>3</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>744</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -4548,7 +4634,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4578,7 +4664,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -4608,7 +4694,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4639,11 +4725,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382303241</v>
+        <v>44342.629525463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4670,7 +4756,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4701,7 +4787,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4722,7 +4808,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4752,7 +4838,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4773,7 +4859,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5633,21 +5719,29 @@
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>760</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -5658,26 +5752,34 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>761</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -5688,26 +5790,34 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>207</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>762</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -5718,27 +5828,35 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>763</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>2</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -5749,27 +5867,35 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382303241</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629525463</v>
+      </c>
+      <c r="D10" s="2">
+        <v>764</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -5780,27 +5906,35 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>765</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="s">
@@ -5811,7 +5945,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5832,7 +5966,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5862,7 +5996,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5883,7 +6017,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6746,7 +6880,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6784,7 +6918,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>106</v>
@@ -6822,7 +6956,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6861,11 +6995,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382303241</v>
+        <v>44342.629525463</v>
       </c>
       <c r="D10" s="2">
         <v>348</v>
@@ -6900,7 +7034,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6939,7 +7073,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6960,7 +7094,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6990,7 +7124,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7013,7 +7147,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7094,147 +7228,203 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>754</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
-      <c r="O18" s="27" t="s">
-        <v>5</v>
+      <c r="O18" s="27">
+        <v>0</v>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>755</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>756</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
-      <c r="O20" s="27" t="s">
-        <v>5</v>
+      <c r="O20" s="27">
+        <v>0</v>
       </c>
       <c r="P20" s="28"/>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>757</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
-      <c r="O21" s="27" t="s">
-        <v>5</v>
+      <c r="O21" s="27">
+        <v>0</v>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>758</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>2</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>759</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K23" s="26"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>1</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">
@@ -7868,7 +8058,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7898,7 +8088,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>107</v>
@@ -7928,7 +8118,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7959,11 +8149,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382303241</v>
+        <v>44342.629525463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7990,7 +8180,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -8021,7 +8211,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -8042,7 +8232,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8072,7 +8262,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8093,7 +8283,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8502,75 +8692,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>751</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>4</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>752</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>4</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>753</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>103</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>4</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -9006,7 +9226,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -9036,7 +9256,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>108</v>
@@ -9066,7 +9286,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9097,11 +9317,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382303241</v>
+        <v>44342.629525463</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9128,7 +9348,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9159,7 +9379,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9180,7 +9400,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9210,7 +9430,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9231,7 +9451,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/WA PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Moderne Wiskunde 11e editie havo 4 PW hoofdstuk 1 (Rekenen) + vaardigheden</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -2432,7 +2435,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2498,7 +2501,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2511,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2528,7 +2531,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2594,7 +2597,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>206</v>
@@ -2607,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2624,7 +2627,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2690,7 +2693,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2704,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -2723,10 +2726,10 @@
         <v>3</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -2791,11 +2794,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>749</v>
@@ -2805,7 +2808,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2822,7 +2825,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2888,7 +2891,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2902,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -2911,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
@@ -2921,10 +2924,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3051,14 +3054,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3083,7 +3086,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4709,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4726,7 +4729,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4792,7 +4795,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4805,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4822,7 +4825,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4888,7 +4891,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>104</v>
@@ -4901,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4918,7 +4921,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4984,7 +4987,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4998,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -5017,10 +5020,10 @@
         <v>3</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5085,11 +5088,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>339</v>
@@ -5099,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -5116,7 +5119,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5182,7 +5185,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5196,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5205,7 +5208,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
@@ -5215,10 +5218,10 @@
         <v>2</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -5283,7 +5286,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5306,7 +5309,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5345,14 +5348,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5377,7 +5380,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5483,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5500,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5575,7 +5578,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5592,10 +5595,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5667,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5684,10 +5687,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -6046,7 +6049,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7110,7 +7113,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7198,7 +7201,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -7286,7 +7289,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7375,11 +7378,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7464,7 +7467,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7553,7 +7556,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7576,7 +7579,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7615,7 +7618,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7645,7 +7648,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7751,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7768,10 +7771,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7843,7 +7846,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7860,10 +7863,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7935,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7952,10 +7955,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8314,7 +8317,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9293,7 +9296,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>760</v>
@@ -9303,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9320,7 +9323,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9386,7 +9389,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9399,7 +9402,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -9416,7 +9419,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9482,7 +9485,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>207</v>
@@ -9495,7 +9498,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -9512,7 +9515,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9578,7 +9581,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9592,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -9609,7 +9612,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9675,11 +9678,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>764</v>
@@ -9689,7 +9692,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -9706,7 +9709,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9772,7 +9775,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9786,7 +9789,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -9803,7 +9806,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9869,7 +9872,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9892,7 +9895,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9931,14 +9934,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11581,7 +11584,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>344</v>
@@ -11591,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11608,7 +11611,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11674,7 +11677,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11687,7 +11690,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11704,7 +11707,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11770,7 +11773,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>106</v>
@@ -11783,7 +11786,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11800,7 +11803,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11866,7 +11869,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11880,7 +11883,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11897,7 +11900,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11963,11 +11966,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2">
         <v>348</v>
@@ -11977,7 +11980,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -11994,7 +11997,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12060,7 +12063,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12074,7 +12077,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -12091,7 +12094,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12157,7 +12160,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12180,7 +12183,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12219,14 +12222,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12251,7 +12254,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12357,7 +12360,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12374,7 +12377,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12447,7 +12450,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12466,10 +12469,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12541,7 +12544,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12557,8 +12560,8 @@
         <v>11</v>
       </c>
       <c r="N20" s="46"/>
-      <c r="O20" s="31">
-        <v>0</v>
+      <c r="O20" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12631,7 +12634,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -12647,8 +12650,8 @@
         <v>11</v>
       </c>
       <c r="N21" s="46"/>
-      <c r="O21" s="31">
-        <v>0</v>
+      <c r="O21" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -12721,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -12738,10 +12741,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12813,7 +12816,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -12830,10 +12833,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -12946,7 +12949,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -13927,7 +13930,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14012,7 +14015,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14100,7 +14103,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>107</v>
@@ -14188,7 +14191,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14277,11 +14280,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14366,7 +14369,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14455,7 +14458,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14478,7 +14481,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14517,7 +14520,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14547,7 +14550,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14653,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14670,7 +14673,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14743,7 +14746,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14762,10 +14765,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14837,7 +14840,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14853,8 +14856,8 @@
         <v>11</v>
       </c>
       <c r="N20" s="46"/>
-      <c r="O20" s="31">
-        <v>0</v>
+      <c r="O20" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14927,7 +14930,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14943,8 +14946,8 @@
         <v>11</v>
       </c>
       <c r="N21" s="46"/>
-      <c r="O21" s="31">
-        <v>0</v>
+      <c r="O21" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15017,7 +15020,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" s="45">
         <v>1</v>
@@ -15034,10 +15037,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15109,7 +15112,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I23" s="45">
         <v>1</v>
@@ -15126,10 +15129,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -15242,7 +15245,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15366,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15383,10 +15386,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15458,7 +15461,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15475,10 +15478,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15550,7 +15553,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15567,10 +15570,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15899,7 +15902,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16255,7 +16258,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16340,7 +16343,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>108</v>
@@ -16516,7 +16519,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16605,11 +16608,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541006944</v>
+        <v>44378.451238426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16694,7 +16697,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16783,7 +16786,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16806,7 +16809,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16845,7 +16848,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16875,7 +16878,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17636,7 +17639,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17653,10 +17656,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17728,7 +17731,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17745,10 +17748,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17820,7 +17823,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17837,10 +17840,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18169,7 +18172,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
